--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Anpep-Sele.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Anpep-Sele.xlsx
@@ -528,34 +528,34 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.90647681700088</v>
+        <v>9.710646666666667</v>
       </c>
       <c r="H2">
-        <v>7.90647681700088</v>
+        <v>29.13194</v>
       </c>
       <c r="I2">
-        <v>0.0866621860669594</v>
+        <v>0.1041051736296835</v>
       </c>
       <c r="J2">
-        <v>0.0866621860669594</v>
+        <v>0.1041051736296835</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.12570219519085</v>
+        <v>7.321929333333333</v>
       </c>
       <c r="N2">
-        <v>3.12570219519085</v>
+        <v>21.965788</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>24.71329194312522</v>
+        <v>71.10066867430223</v>
       </c>
       <c r="R2">
-        <v>24.71329194312522</v>
+        <v>639.90601806872</v>
       </c>
       <c r="S2">
-        <v>0.0866621860669594</v>
+        <v>0.1041051736296835</v>
       </c>
       <c r="T2">
-        <v>0.0866621860669594</v>
+        <v>0.1041051736296835</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,34 +590,34 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>77.5710481994231</v>
+        <v>77.72230533333334</v>
       </c>
       <c r="H3">
-        <v>77.5710481994231</v>
+        <v>233.166916</v>
       </c>
       <c r="I3">
-        <v>0.8502493295133041</v>
+        <v>0.8332394710025435</v>
       </c>
       <c r="J3">
-        <v>0.8502493295133041</v>
+        <v>0.8332394710025435</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.12570219519085</v>
+        <v>7.321929333333333</v>
       </c>
       <c r="N3">
-        <v>3.12570219519085</v>
+        <v>21.965788</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>242.463995640192</v>
+        <v>569.0772272744232</v>
       </c>
       <c r="R3">
-        <v>242.463995640192</v>
+        <v>5121.695045469808</v>
       </c>
       <c r="S3">
-        <v>0.8502493295133041</v>
+        <v>0.8332394710025435</v>
       </c>
       <c r="T3">
-        <v>0.8502493295133041</v>
+        <v>0.8332394710025435</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,34 +652,34 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.75577033216038</v>
+        <v>5.844320666666666</v>
       </c>
       <c r="H4">
-        <v>5.75577033216038</v>
+        <v>17.532962</v>
       </c>
       <c r="I4">
-        <v>0.06308848441973647</v>
+        <v>0.06265535536777307</v>
       </c>
       <c r="J4">
-        <v>0.06308848441973647</v>
+        <v>0.06265535536777307</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.12570219519085</v>
+        <v>7.321929333333333</v>
       </c>
       <c r="N4">
-        <v>3.12570219519085</v>
+        <v>21.965788</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>17.99082396224807</v>
+        <v>42.79170292267288</v>
       </c>
       <c r="R4">
-        <v>17.99082396224807</v>
+        <v>385.1253263040559</v>
       </c>
       <c r="S4">
-        <v>0.06308848441973647</v>
+        <v>0.06265535536777307</v>
       </c>
       <c r="T4">
-        <v>0.06308848441973647</v>
+        <v>0.06265535536777307</v>
       </c>
     </row>
   </sheetData>
